--- a/xlsx/世界概况_intext.xlsx
+++ b/xlsx/世界概况_intext.xlsx
@@ -15,2877 +15,2829 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="941">
   <si>
     <t>世界概况</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国中央情报局</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_世界概况</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E8%BF%9E%E7%BB%AD%E5%87%BA%E7%89%88%E7%89%A9%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>国际标准连续出版物号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国国务院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国人口调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国防部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A0%98%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>公有领域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%83%85%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中情局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>电子书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
+  </si>
+  <si>
+    <t>网站</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/HTTPS</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E5%AE%A1%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>网络审查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>版权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>非政府机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A7%91%E5%AD%A6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>国家科学基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%95%86%E5%8B%99%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国商务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国劳工部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国能源部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国内政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国运输部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%90%8D%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国地名委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
+  </si>
+  <si>
+    <t>通讯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
+  </si>
+  <si>
+    <t>运输</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
+  </si>
+  <si>
+    <t>外交</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>独立国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
+  </si>
+  <si>
+    <t>安地卡及巴布达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
+  </si>
+  <si>
+    <t>亚塞拜然</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
+  </si>
+  <si>
+    <t>孟加拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>巴贝多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
+  </si>
+  <si>
+    <t>贝里斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%AF%A7</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>波士尼亚赫塞哥维纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波札那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
+  </si>
+  <si>
+    <t>汶莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布吉纳法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>蒲隆地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
+  </si>
+  <si>
+    <t>维德角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯大黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>象牙海岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克罗埃西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>吉布地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多明尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>厄瓜多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>厄利垂亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>衣索比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>斐济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
+  </si>
+  <si>
+    <t>加彭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>甘比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>迦纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
+  </si>
+  <si>
+    <t>格瑞那达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>瓜地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>几内亚比索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
+  </si>
+  <si>
+    <t>盖亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>宏都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>义大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B</t>
+  </si>
+  <si>
+    <t>哈萨克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>肯亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%87%8C%E5%B7%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>吉里巴斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
+  </si>
+  <si>
+    <t>朝鲜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>吉尔吉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>寮国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
+  </si>
+  <si>
+    <t>赖索托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>赖比瑞亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
+  </si>
+  <si>
+    <t>马拉威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔地夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9</t>
+  </si>
+  <si>
+    <t>马利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马尔他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE</t>
+  </si>
+  <si>
+    <t>马绍尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>茅利塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>模里西斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
+  </si>
+  <si>
+    <t>密克罗尼西亚联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩纳哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
+  </si>
+  <si>
+    <t>蒙古</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特内哥罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>诺鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
+  </si>
+  <si>
+    <t>纽西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E7%88%BE</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奈及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
+  </si>
+  <si>
+    <t>帛琉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>巴布亚纽几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E7%88%BE</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
+  </si>
+  <si>
+    <t>卢安达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣基茨和尼维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>圣露西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%B4%8D%E4%B8%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%A9%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>圣马利诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>塞席尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛维尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>索罗门群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>索马利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8B%8F%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>南苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏利南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%98%AD</t>
+  </si>
+  <si>
+    <t>史瓦济兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>塔吉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>坦尚尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>汤加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
+  </si>
+  <si>
+    <t>千里达及托巴哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>土库曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%90%E7%93%A6%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>吐瓦鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
+  </si>
+  <si>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
+  </si>
+  <si>
+    <t>阿联酋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
+  </si>
+  <si>
+    <t>乌兹别克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%82%A3%E6%9D%9C</t>
+  </si>
+  <si>
+    <t>万那杜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
+  </si>
+  <si>
+    <t>叶门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>尚比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
+  </si>
+  <si>
+    <t>辛巴威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%92%92%E5%93%88%E6%8B%89%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>阿拉伯撒哈拉民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>亚什摩及卡地尔群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>珊瑚海群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贺得及麦唐纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>科科斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣诞岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>诺福克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
+  </si>
+  <si>
+    <t>澳门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>克利珀顿岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E9%A2%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>法属南部领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>新喀里多尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%89%98%E6%B4%9B%E7%B9%86%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣巴托洛缪岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>法属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>法属玻里尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%84%E7%89%B9</t>
+  </si>
+  <si>
+    <t>马约特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%9A%AE%E8%80%B6%E8%88%87%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣皮耶与密克隆群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%8F%8A%E5%AF%8C%E5%9C%96%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>瓦利斯及富图纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%8A%A0%E5%8B%92%E6%AF%94%E5%8D%80</t>
+  </si>
+  <si>
+    <t>荷兰加勒比区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>阿鲁巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>库拉索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>荷属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>库克群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
+  </si>
+  <si>
+    <t>纽埃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
+  </si>
+  <si>
+    <t>托克劳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%B6%AD%E7%89%B9%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>波维特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>扬马延岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E7%88%BE%E5%B7%B4%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚克罗提利与德凯利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安圭拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94</t>
+  </si>
+  <si>
+    <t>百慕达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>英属印度洋领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>英属维京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>开曼群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>福克兰群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>泽西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A1%9E%E6%8B%89%E7%89%B9</t>
+  </si>
+  <si>
+    <t>蒙特塞拉特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%B1%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>皮特凯恩群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF%E3%80%81%E4%BA%9E%E6%A3%AE%E6%AC%A3%E8%88%87%E5%9E%82%E6%96%AF%E5%9D%A6%E6%98%86%E5%93%88</t>
+  </si>
+  <si>
+    <t>圣赫勒拿、亚森欣与垂斯坦昆哈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%88%87%E5%8D%97%E4%B8%89%E6%98%8E%E6%B2%BB%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>南乔治亚与南三明治群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>特克斯与凯科斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>纳弗沙岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>西沙群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>南沙群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>北冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>印度洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>南冰洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISBN</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>澳大利亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E9%9D%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>欧亚非大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>欧亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地质学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>超大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>冈瓦那大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BA%9A%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>劳亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>盘古大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>潘诺西亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>罗迪尼亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>哥伦比亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>凯诺兰大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>妮娜大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>乌尔大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>瓦巴拉大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>北极大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>阿瓦隆尼亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>波罗的大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>辛梅利亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
+  </si>
+  <si>
+    <t>刚果克拉通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>欧美大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>哈萨克大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>劳伦大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
+  </si>
+  <si>
+    <t>华北陆块</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>西伯利亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
+  </si>
+  <si>
+    <t>扬子克拉通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
+  </si>
+  <si>
+    <t>东南极克拉通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>印度次大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>淹没的大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>凯尔盖朗海台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>西兰大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>终极盘古大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>阿美西亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>新盘古大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>雷姆利亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>姆大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>未知的南方大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>亚特兰蒂斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>Template talk-亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>朝鲜民主主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>台湾地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%8E%B1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB</t>
+  </si>
+  <si>
+    <t>阿尔扎赫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>阿布哈兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
+  </si>
+  <si>
+    <t>南奥塞梯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>北赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>科科斯（基林）群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>有限承认国家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国地理区划列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>近东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>中东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>远东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
+  </si>
+  <si>
+    <t>东亚岛弧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>东印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>撒哈拉以南非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>东部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
+  </si>
+  <si>
+    <t>非洲之角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西北非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>大中东地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
+  </si>
+  <si>
+    <t>欧俄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>中美 (政治地理学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>加勒比地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>盎格鲁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>伊比利亚美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西班牙语美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中部美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大拉西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>美拉尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>密克罗尼西亚群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻里尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>极地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北极地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>环太平洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>亚太地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
+  </si>
+  <si>
+    <t>独立国家国协</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>阿拉伯世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>世界大洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
+  </si>
+  <si>
+    <t>热带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>赤道多雨气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带干湿季气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带草原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带干旱半干旱气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带季风气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
+  </si>
+  <si>
+    <t>亚热带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>副热带湿润气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>副热带季风气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>温带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带海洋性气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带大陆性气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>地中海式气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带草原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带干旱半干旱气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%AD%A3%E9%A3%8E%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>温带季风气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>寒带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>极地气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>副极地大陆性气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E5%8E%9F%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>苔原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>极地冰原气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>高地气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
+  </si>
+  <si>
+    <t>生物地理分布区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
+  </si>
+  <si>
+    <t>新北界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%8C%97%E7%95%8C</t>
+  </si>
+  <si>
+    <t>古北界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
+  </si>
+  <si>
+    <t>东洋界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
+  </si>
+  <si>
+    <t>澳新界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%83%AD%E5%B8%A6%E7%95%8C</t>
+  </si>
+  <si>
+    <t>新热带界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E7%95%8C</t>
+  </si>
+  <si>
+    <t>南极界</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國中央情報局</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_世界概况</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E8%BF%9E%E7%BB%AD%E5%87%BA%E7%89%88%E7%89%A9%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>国际标准连续出版物号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國國務院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國人口調查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國國防部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9C%89%E9%A0%98%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>公有領域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%83%85%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中情局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>電子書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
-  </si>
-  <si>
-    <t>網站</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/HTTPS</t>
-  </si>
-  <si>
-    <t>HTTPS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E5%AE%A1%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>网络审查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%88%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>版權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F</t>
-  </si>
-  <si>
-    <t>學生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>非政府机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A7%91%E5%AD%A6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>国家科学基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%95%86%E5%8B%99%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國商務部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國勞工部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國能源部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國內政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國運輸部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%90%8D%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國地名委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
-  </si>
-  <si>
-    <t>通訊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
-  </si>
-  <si>
-    <t>運輸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>軍事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
-  </si>
-  <si>
-    <t>外交</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>独立国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>阿爾巴尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>阿爾及利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE</t>
-  </si>
-  <si>
-    <t>安道爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
-  </si>
-  <si>
-    <t>安地卡及巴布達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奧地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
-  </si>
-  <si>
-    <t>亞塞拜然</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>巴哈馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
-  </si>
-  <si>
-    <t>孟加拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>巴貝多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
-  </si>
-  <si>
-    <t>貝里斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%AF%A7</t>
-  </si>
-  <si>
-    <t>貝寧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>波士尼亞赫塞哥維納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波札那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
-  </si>
-  <si>
-    <t>汶萊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布吉納法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
-  </si>
-  <si>
-    <t>緬甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>蒲隆地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麥隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
-  </si>
-  <si>
-    <t>維德角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>剛果共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯大黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>象牙海岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>吉布地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多明尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>厄瓜多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>薩爾瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>赤道幾內亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>厄利垂亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>愛沙尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>衣索比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>斐濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
-  </si>
-  <si>
-    <t>加彭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>甘比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>格魯吉亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>迦納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
-  </si>
-  <si>
-    <t>格瑞那達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>瓜地馬拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>幾內亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>幾內亞比索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
-  </si>
-  <si>
-    <t>蓋亞那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>宏都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>冰島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>印尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
-  </si>
-  <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>牙買加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
-  </si>
-  <si>
-    <t>約旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B</t>
-  </si>
-  <si>
-    <t>哈薩克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>肯亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%87%8C%E5%B7%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>吉里巴斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
-  </si>
-  <si>
-    <t>朝鮮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>韓國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>吉爾吉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>寮國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
-  </si>
-  <si>
-    <t>賴索托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>賴比瑞亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>利比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
-  </si>
-  <si>
-    <t>馬其頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>馬達加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
-  </si>
-  <si>
-    <t>馬拉威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>馬爾地夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9</t>
-  </si>
-  <si>
-    <t>馬利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE</t>
-  </si>
-  <si>
-    <t>馬紹爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>茅利塔尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>模里西斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
-  </si>
-  <si>
-    <t>密克羅尼西亞聯邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩爾多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩納哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>納米比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>諾魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
-  </si>
-  <si>
-    <t>尼泊爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
-  </si>
-  <si>
-    <t>紐西蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E7%88%BE</t>
-  </si>
-  <si>
-    <t>尼日爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奈及利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9B%E7%90%89</t>
-  </si>
-  <si>
-    <t>帛琉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>巴拿馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>巴布亞紐幾內亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
-  </si>
-  <si>
-    <t>波蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E7%88%BE</t>
-  </si>
-  <si>
-    <t>卡塔爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
-  </si>
-  <si>
-    <t>盧安達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9F%BA%E8%8C%A8%E5%92%8C%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖基茨和尼維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>聖露西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%B4%8D%E4%B8%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖文森特和格林納丁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%A9%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>聖馬利諾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
-  </si>
-  <si>
-    <t>塞內加爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>塞爾維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>塞席爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>索羅門群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>索馬利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8B%8F%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>南苏丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>蘇丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
-  </si>
-  <si>
-    <t>蘇利南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%93%A6%E6%BF%9F%E8%98%AD</t>
-  </si>
-  <si>
-    <t>史瓦濟蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>塔吉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>坦尚尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>泰國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>東帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>湯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
-  </si>
-  <si>
-    <t>千里達及托巴哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>土庫曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%90%E7%93%A6%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>吐瓦魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
-  </si>
-  <si>
-    <t>烏干達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
-  </si>
-  <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B</t>
-  </si>
-  <si>
-    <t>阿聯酋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
-  </si>
-  <si>
-    <t>烏茲別克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%82%A3%E6%9D%9C</t>
-  </si>
-  <si>
-    <t>萬那杜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
-  </si>
-  <si>
-    <t>葉門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尚比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
-  </si>
-  <si>
-    <t>辛巴威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%92%92%E5%93%88%E6%8B%89%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>阿拉伯撒哈拉民主共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>亞什摩及卡地爾群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>珊瑚海群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賀得及麥唐納群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>科科斯群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖誕島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>諾福克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
-  </si>
-  <si>
-    <t>澳門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>法羅群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
-  </si>
-  <si>
-    <t>格陵蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>克利珀頓島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E9%A2%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>法属南部领地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>新喀里多尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%89%98%E6%B4%9B%E7%B9%86%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖巴托洛繆島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>法屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>法屬玻里尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%84%E7%89%B9</t>
-  </si>
-  <si>
-    <t>馬約特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%9A%AE%E8%80%B6%E8%88%87%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖皮耶與密克隆群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%8F%8A%E5%AF%8C%E5%9C%96%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>瓦利斯及富圖納群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%8A%A0%E5%8B%92%E6%AF%94%E5%8D%80</t>
-  </si>
-  <si>
-    <t>荷蘭加勒比區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>阿魯巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>庫拉索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>荷屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>庫克群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
-  </si>
-  <si>
-    <t>紐埃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
-  </si>
-  <si>
-    <t>托克勞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%B6%AD%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>波維特島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E7%88%BE%E5%B7%B4%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>斯瓦爾巴群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞克羅提利與德凱利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安圭拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94</t>
-  </si>
-  <si>
-    <t>百慕達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>英屬印度洋領地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>英屬維京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>開曼群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>福克蘭群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布羅陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>根西島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>澤西島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A1%9E%E6%8B%89%E7%89%B9</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%B1%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>皮特凱恩群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF%E3%80%81%E4%BA%9E%E6%A3%AE%E6%AC%A3%E8%88%87%E5%9E%82%E6%96%AF%E5%9D%A6%E6%98%86%E5%93%88</t>
-  </si>
-  <si>
-    <t>聖赫勒拿、亞森欣與垂斯坦昆哈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%88%87%E5%8D%97%E4%B8%89%E6%98%8E%E6%B2%BB%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>南喬治亞與南三明治群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>特克斯與凱科斯群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>納弗沙島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>北馬里亞納群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南極洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>西沙群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B2%99%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>南沙群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>北冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>印度洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>南冰洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISBN</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>澳大利亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E9%9D%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>歐亞非大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>歐亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地质学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>超大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>冈瓦那大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BA%9A%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>劳亚大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>盤古大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>潘諾西亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>羅迪尼亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>哥倫比亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>凱諾蘭大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>妮娜大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>烏爾大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>瓦巴拉大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>北極大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>阿瓦隆尼亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>波羅的大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>辛梅利亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
-  </si>
-  <si>
-    <t>剛果克拉通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>歐美大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>哈薩克大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>勞倫大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
-  </si>
-  <si>
-    <t>華北陸塊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>西伯利亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
-  </si>
-  <si>
-    <t>扬子克拉通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
-  </si>
-  <si>
-    <t>東南極克拉通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>印度次大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>淹没的大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>凱爾蓋朗海台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>西兰大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>終極盤古大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>阿美西亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>新盤古大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>雷姆利亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>姆大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>未知的南方大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>亚特兰蒂斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>Template talk-亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>朝鲜民主主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>臺灣地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%8E%B1</t>
-  </si>
-  <si>
-    <t>汶莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>中亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB</t>
-  </si>
-  <si>
-    <t>阿尔扎赫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>阿布哈茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
-  </si>
-  <si>
-    <t>南奥塞梯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>北賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>科科斯（基林）群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>有限承认国家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>联合国地理区划列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>近东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>中东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>远东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
-  </si>
-  <si>
-    <t>東亞島弧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>東印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>撒哈拉以南非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>东部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
-  </si>
-  <si>
-    <t>非洲之角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西北非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>大中东地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>西欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>巴爾幹半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>中美 (政治地理学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>加勒比地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>盎格鲁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>伊比利亚美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西班牙语美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中部美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大拉西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>美拉尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻里尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>极地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北极地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>環太平洋地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>亚太地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
-  </si>
-  <si>
-    <t>獨立國家國協</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>阿拉伯世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>高加索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>世界大洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
-  </si>
-  <si>
-    <t>熱帶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>赤道多雨氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>热带草原气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>热带干旱半干旱气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>熱帶季風氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
-  </si>
-  <si>
-    <t>亞熱帶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>副热带湿润气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>副熱帶季風氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>温带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带海洋性气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>溫帶大陸性氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>地中海式气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带草原气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%B9%B2%E6%97%B1%E5%8D%8A%E5%B9%B2%E6%97%B1%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带干旱半干旱气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%AD%A3%E9%A3%8E%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>温带季风气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>寒带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>極地氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>副极地大陆性气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%94%E5%8E%9F%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>苔原气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>極地冰原氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>高地氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
-  </si>
-  <si>
-    <t>生物地理分布區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
-  </si>
-  <si>
-    <t>新北界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%8C%97%E7%95%8C</t>
-  </si>
-  <si>
-    <t>古北界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
-  </si>
-  <si>
-    <t>東洋界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
-  </si>
-  <si>
-    <t>澳新界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%83%AD%E5%B8%A6%E7%95%8C</t>
-  </si>
-  <si>
-    <t>新热带界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E7%95%8C</t>
-  </si>
-  <si>
-    <t>南极界</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -3234,7 +3186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3404,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -10129,7 +10081,7 @@
         <v>473</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>94</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10155,10 +10107,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
         <v>475</v>
-      </c>
-      <c r="F239" t="s">
-        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10184,10 +10136,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>476</v>
+      </c>
+      <c r="F240" t="s">
         <v>477</v>
-      </c>
-      <c r="F240" t="s">
-        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10213,10 +10165,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>478</v>
+      </c>
+      <c r="F241" t="s">
         <v>479</v>
-      </c>
-      <c r="F241" t="s">
-        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10242,10 +10194,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>480</v>
+      </c>
+      <c r="F242" t="s">
         <v>481</v>
-      </c>
-      <c r="F242" t="s">
-        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10271,10 +10223,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>482</v>
+      </c>
+      <c r="F243" t="s">
         <v>483</v>
-      </c>
-      <c r="F243" t="s">
-        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10300,10 +10252,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" t="s">
         <v>485</v>
-      </c>
-      <c r="F244" t="s">
-        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10329,10 +10281,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F245" t="s">
-        <v>488</v>
+        <v>150</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10358,10 +10310,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F246" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -10387,10 +10339,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F247" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -10416,10 +10368,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F248" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10445,10 +10397,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F249" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10474,10 +10426,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F250" t="s">
-        <v>498</v>
+        <v>198</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10503,10 +10455,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F251" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10532,10 +10484,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F252" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10561,10 +10513,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F253" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10590,10 +10542,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F254" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10619,10 +10571,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F255" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10648,10 +10600,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F256" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10677,10 +10629,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F257" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10706,10 +10658,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F258" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10735,10 +10687,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F259" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10764,10 +10716,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F260" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10793,10 +10745,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F261" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10822,10 +10774,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F262" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10851,10 +10803,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F263" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10880,10 +10832,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F264" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10909,10 +10861,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F265" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10938,10 +10890,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F266" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10967,10 +10919,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F267" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10996,10 +10948,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11025,10 +10977,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11054,10 +11006,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F270" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11083,10 +11035,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F271" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11112,10 +11064,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F272" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11141,10 +11093,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F273" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11170,10 +11122,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F274" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11199,10 +11151,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11228,10 +11180,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F276" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11257,10 +11209,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F277" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11286,10 +11238,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F278" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11315,10 +11267,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F279" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11344,10 +11296,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F280" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11373,10 +11325,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F281" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11402,10 +11354,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F282" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11431,10 +11383,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F283" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11460,10 +11412,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F284" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11489,10 +11441,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F285" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11518,10 +11470,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F286" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11547,10 +11499,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F287" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11576,10 +11528,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11605,10 +11557,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11634,10 +11586,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11663,10 +11615,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11692,10 +11644,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11721,10 +11673,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11750,10 +11702,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11779,10 +11731,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11808,10 +11760,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11837,10 +11789,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11866,10 +11818,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11895,10 +11847,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11924,10 +11876,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11953,10 +11905,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11982,10 +11934,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12011,10 +11963,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12040,10 +11992,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -12069,10 +12021,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -12098,10 +12050,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G306" t="n">
         <v>4</v>
@@ -12127,10 +12079,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G307" t="n">
         <v>3</v>
@@ -12156,10 +12108,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -12185,10 +12137,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G309" t="n">
         <v>28</v>
@@ -12214,10 +12166,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F310" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12243,10 +12195,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F311" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12272,10 +12224,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F312" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G312" t="n">
         <v>14</v>
@@ -12301,10 +12253,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F313" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>3</v>
@@ -12330,10 +12282,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F314" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12359,10 +12311,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F315" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G315" t="n">
         <v>4</v>
@@ -12388,10 +12340,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F316" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12417,10 +12369,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12446,10 +12398,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12475,10 +12427,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12504,10 +12456,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12533,10 +12485,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12562,10 +12514,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12591,10 +12543,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F323" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12620,10 +12572,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F324" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12649,10 +12601,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F325" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -12678,10 +12630,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>15</v>
@@ -12707,10 +12659,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12736,10 +12688,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -12765,10 +12717,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F329" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12794,10 +12746,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F330" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12823,10 +12775,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F331" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12852,10 +12804,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12881,10 +12833,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -12910,10 +12862,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12939,10 +12891,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12968,10 +12920,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12997,10 +12949,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13026,10 +12978,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13055,10 +13007,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13084,10 +13036,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13113,10 +13065,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F341" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13142,10 +13094,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13171,10 +13123,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13200,10 +13152,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13229,10 +13181,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13258,10 +13210,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13287,10 +13239,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13316,10 +13268,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13345,10 +13297,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13374,10 +13326,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13403,10 +13355,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13432,10 +13384,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13461,10 +13413,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13490,10 +13442,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13519,10 +13471,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13548,10 +13500,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13577,10 +13529,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13606,10 +13558,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F358" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13635,10 +13587,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13664,10 +13616,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13693,10 +13645,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13722,10 +13674,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13751,10 +13703,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13780,10 +13732,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13809,10 +13761,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13838,10 +13790,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G366" t="n">
         <v>5</v>
@@ -13867,10 +13819,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13896,10 +13848,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F368" t="s">
-        <v>488</v>
+        <v>150</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13925,10 +13877,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13954,10 +13906,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F370" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13983,10 +13935,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F371" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14012,10 +13964,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14041,10 +13993,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F373" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14070,10 +14022,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F374" t="s">
-        <v>726</v>
+        <v>426</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14099,10 +14051,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F375" t="s">
-        <v>728</v>
+        <v>354</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14128,10 +14080,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F376" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14157,10 +14109,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F377" t="s">
-        <v>732</v>
+        <v>292</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14186,10 +14138,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F378" t="s">
-        <v>734</v>
+        <v>132</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14215,10 +14167,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F379" t="s">
-        <v>736</v>
+        <v>424</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14244,10 +14196,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F380" t="s">
-        <v>738</v>
+        <v>126</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14273,10 +14225,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F381" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G381" t="n">
         <v>5</v>
@@ -14302,10 +14254,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F382" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14331,10 +14283,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F383" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14360,10 +14312,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F384" t="s">
-        <v>746</v>
+        <v>326</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14389,10 +14341,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F385" t="s">
-        <v>748</v>
+        <v>406</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14418,10 +14370,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="F386" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14447,10 +14399,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="F387" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14476,10 +14428,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F388" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14505,10 +14457,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="F389" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14534,10 +14486,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14563,10 +14515,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="F391" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14592,10 +14544,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="F392" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G392" t="n">
         <v>7</v>
@@ -14621,10 +14573,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="F393" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14650,10 +14602,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="F394" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14679,10 +14631,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="F395" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14708,10 +14660,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="F396" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14737,10 +14689,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14766,10 +14718,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>204</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14795,10 +14747,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>360</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14824,10 +14776,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>418</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14853,10 +14805,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14882,10 +14834,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>250</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14911,10 +14863,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14940,10 +14892,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G404" t="n">
         <v>3</v>
@@ -14969,10 +14921,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>364</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14998,10 +14950,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F406" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15027,10 +14979,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F407" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15056,10 +15008,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F408" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15085,10 +15037,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F409" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15114,10 +15066,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F410" t="s">
-        <v>796</v>
+        <v>620</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15143,10 +15095,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="F411" t="s">
-        <v>798</v>
+        <v>624</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15172,10 +15124,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="F412" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15201,10 +15153,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="F413" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15230,10 +15182,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="F414" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15259,10 +15211,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F415" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15288,10 +15240,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="F416" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15317,10 +15269,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="F417" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15346,10 +15298,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="F418" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15375,10 +15327,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="F419" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15404,10 +15356,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="F420" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15433,10 +15385,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="F421" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15462,10 +15414,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="F422" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15491,10 +15443,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="F423" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15520,10 +15472,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="F424" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15549,10 +15501,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="F425" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15578,10 +15530,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="F426" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15607,10 +15559,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="F427" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15636,10 +15588,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="F428" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15665,10 +15617,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="F429" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15694,10 +15646,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="F430" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15723,10 +15675,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="F431" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15752,10 +15704,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="F432" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15781,10 +15733,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="F433" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15810,10 +15762,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="F434" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15839,10 +15791,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="F435" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15868,10 +15820,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="F436" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -15897,10 +15849,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="F437" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -15926,10 +15878,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="F438" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15955,10 +15907,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="F439" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15984,10 +15936,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="F440" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16013,10 +15965,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="F441" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16042,10 +15994,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="F442" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="G442" t="n">
         <v>3</v>
@@ -16071,10 +16023,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="F443" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -16100,10 +16052,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="F444" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16129,10 +16081,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="F445" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16158,10 +16110,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="F446" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16187,10 +16139,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F447" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G447" t="n">
         <v>3</v>
@@ -16216,10 +16168,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="F448" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16245,10 +16197,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="F449" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16274,10 +16226,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="F450" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16303,10 +16255,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="F451" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16332,10 +16284,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="F452" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16361,10 +16313,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="F453" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16390,10 +16342,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="F454" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16419,10 +16371,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="F455" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16448,10 +16400,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="F456" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="G456" t="n">
         <v>3</v>
@@ -16477,10 +16429,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="F457" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16506,10 +16458,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F458" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16535,10 +16487,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="F459" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16564,10 +16516,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="F460" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16593,10 +16545,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="F461" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16622,10 +16574,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="F462" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16651,10 +16603,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="F463" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16680,10 +16632,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="F464" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="G464" t="n">
         <v>5</v>
@@ -16709,10 +16661,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="F465" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16738,10 +16690,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="F466" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16767,10 +16719,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="F467" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="G467" t="n">
         <v>10</v>
@@ -16796,10 +16748,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="F468" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16825,10 +16777,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="F469" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16854,10 +16806,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="F470" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16883,10 +16835,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="F471" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16912,10 +16864,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="F472" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -16941,10 +16893,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="F473" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16970,10 +16922,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="F474" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16999,10 +16951,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="F475" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17028,10 +16980,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="F476" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="G476" t="n">
         <v>8</v>
@@ -17057,10 +17009,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="F477" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17086,10 +17038,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="F478" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17115,10 +17067,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="F479" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17144,10 +17096,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="F480" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17173,10 +17125,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="F481" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17202,10 +17154,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="F482" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17231,10 +17183,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="F483" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -17260,10 +17212,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="F484" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -17289,10 +17241,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="F485" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17318,10 +17270,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="F486" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17347,10 +17299,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="F487" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17376,10 +17328,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="F488" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17405,10 +17357,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="F489" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17434,10 +17386,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="F490" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17463,10 +17415,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="F491" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17492,10 +17444,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="F492" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17521,10 +17473,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="F493" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17550,10 +17502,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="F494" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17579,10 +17531,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="F495" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17608,10 +17560,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="F496" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17620,6 +17572,64 @@
         <v>4</v>
       </c>
       <c r="I496" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1</v>
+      </c>
+      <c r="D497" t="n">
+        <v>496</v>
+      </c>
+      <c r="E497" t="s">
+        <v>938</v>
+      </c>
+      <c r="F497" t="s">
+        <v>939</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2</v>
+      </c>
+      <c r="H497" t="s">
+        <v>4</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>497</v>
+      </c>
+      <c r="E498" t="s">
+        <v>938</v>
+      </c>
+      <c r="F498" t="s">
+        <v>940</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="s">
+        <v>4</v>
+      </c>
+      <c r="I498" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/世界概况_intext.xlsx
+++ b/xlsx/世界概况_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國中央情報局</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界概况</t>
+    <t>体育运动_体育运动_南非_世界概况</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
@@ -1748,10 +1748,10 @@
     <t>賈維斯島</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>约翰斯顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
